--- a/storyPointsPoker.xlsx
+++ b/storyPointsPoker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\SYP\project-proposal-dahoam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19416D6-0C40-4EB4-AD7B-F620DC11F815}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3168F-5A56-44EB-A5FD-2F36C17ED924}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2F9F6E6-5894-470C-B1EC-FDB7E81B09F9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>User Story</t>
   </si>
@@ -131,6 +131,104 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Demo Mode</t>
+  </si>
+  <si>
+    <t>Install Smart Home Interfaces</t>
+  </si>
+  <si>
+    <t>Kiosk Auto Start</t>
+  </si>
+  <si>
+    <t>Session Management</t>
+  </si>
+  <si>
+    <t>As an admin I want to add smart home devices via the app</t>
+  </si>
+  <si>
+    <t>As a user i want to plug in the mirror and it starts automatically</t>
+  </si>
+  <si>
+    <t>As a user i only want to have access to the commands for which i have permissions and want to be logged out automatically if i leave the mirror</t>
+  </si>
+  <si>
+    <t>24/7 Runtime performance</t>
+  </si>
+  <si>
+    <t>As a user i want to have an own mode for loud circumstances, not switching in sleep mode</t>
+  </si>
+  <si>
+    <t>Possibility to switch modes
+Microphone usage
+Not switching in sleep mode</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>picture, which was taken while registration will be shown</t>
+  </si>
+  <si>
+    <t>Encrypt password before storing in database</t>
+  </si>
+  <si>
+    <t>encrypt password before storing in db</t>
+  </si>
+  <si>
+    <t>Improve speech recognition
+qualitiy</t>
+  </si>
+  <si>
+    <t>Find and implement alternative to PocketSphinx</t>
+  </si>
+  <si>
+    <t>Dahoam-Flaws</t>
+  </si>
+  <si>
+    <t>Fix intent parses
+-Multiple commands (licht in raum 1 und 2 einschalten)</t>
+  </si>
+  <si>
+    <t>App-Page
+Configuration in Master Service
+Adjust speach and intent to topic</t>
+  </si>
+  <si>
+    <t>Ristrict access to commands
+Guest: Weather, Register
+Logout</t>
+  </si>
+  <si>
+    <t>cope with memory leaks
+unhealthy containers</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Fix email and calendar</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Notice if the mirror has already started
+Kiosk auto start
+Log into known network</t>
   </si>
 </sst>
 </file>
@@ -193,7 +291,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,6 +330,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9276E98-65C9-46D0-BBDA-2ADF4272FA50}" name="Tabelle1" displayName="Tabelle1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{91953463-AD67-445B-BD5D-2C0E41AF4B3E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{870F0846-DE28-4D92-B4B9-FD08FEDDB286}" name="User Story" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E6836023-F8E5-4B4C-85FA-4AC57B99EB79}" name="Description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5D82E43B-3245-43F0-90DB-97E84FE1A4C1}" name="DoD" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{94B91515-5378-4322-AAEF-FFFB6C89C72D}" name="Story-Points" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A7413C68-EDFA-48C8-844D-69F4D53DC1E8}" name="Priority" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5DE7B-1BE7-4C41-AAC7-00E9B8A54FAE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +654,11 @@
     <col min="1" max="1" width="26.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="12.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +671,14 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -544,8 +691,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -558,8 +711,11 @@
       <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -572,8 +728,11 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -586,8 +745,11 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -600,8 +762,11 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -614,8 +779,11 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -628,8 +796,11 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -642,8 +813,153 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>